--- a/data/Output/xlsx/spea2/results_spring_spea2.xlsx
+++ b/data/Output/xlsx/spea2/results_spring_spea2.xlsx
@@ -160,7 +160,7 @@
     <t>Li-ion</t>
   </si>
   <si>
-    <t>20-90</t>
+    <t>10-90</t>
   </si>
 </sst>
 </file>
@@ -615,7 +615,7 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.2647379586845738</v>
+        <v>-0.2549782147724685</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -624,7 +624,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.220838634928585</v>
+        <v>0.004290229321484086</v>
       </c>
       <c r="K2" t="s">
         <v>47</v>
@@ -651,13 +651,13 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>-2.431678456487619</v>
+        <v>-0.04724018611063234</v>
       </c>
       <c r="T2">
         <v>-0</v>
       </c>
       <c r="U2">
-        <v>2.431678456487619</v>
+        <v>0.04724018611063234</v>
       </c>
       <c r="V2">
         <v>2.434141304347826</v>
@@ -674,7 +674,7 @@
         <v>90.94428373531224</v>
       </c>
       <c r="C3">
-        <v>47.8416077175619</v>
+        <v>59.76379906944683</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -686,7 +686,7 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.2664261727340942</v>
+        <v>-0.2292637522085407</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.2222214307042229</v>
+        <v>0.01568396197812505</v>
       </c>
       <c r="K3" t="s">
         <v>47</v>
@@ -722,13 +722,13 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>-2.443489811311118</v>
+        <v>-0.1724568200874753</v>
       </c>
       <c r="T3">
         <v>-0</v>
       </c>
       <c r="U3">
-        <v>2.443489811311118</v>
+        <v>0.1724568200874753</v>
       </c>
       <c r="V3">
         <v>2.445684782608696</v>
@@ -745,28 +745,28 @@
         <v>116.1907039918913</v>
       </c>
       <c r="C4">
-        <v>35.62415866100631</v>
+        <v>58.90151496900946</v>
       </c>
       <c r="D4">
-        <v>-0.6773124129296417</v>
+        <v>0</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>0.03386562064648209</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>0.419382778109458</v>
+        <v>-0.06201167919706826</v>
       </c>
       <c r="H4">
-        <v>0.07869740608074162</v>
+        <v>0</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.284378992739924</v>
+        <v>0.1165885547291804</v>
       </c>
       <c r="K4" t="s">
         <v>47</v>
@@ -790,16 +790,16 @@
         <v>0</v>
       </c>
       <c r="R4">
-        <v>0.6773124129296417</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>-2.44751931927162</v>
+        <v>-1.003424118484702</v>
       </c>
       <c r="T4">
         <v>-0</v>
       </c>
       <c r="U4">
-        <v>2.44751931927162</v>
+        <v>1.003424118484702</v>
       </c>
       <c r="V4">
         <v>2.451603260869565</v>
@@ -816,19 +816,19 @@
         <v>87.04494195136807</v>
       </c>
       <c r="C5">
-        <v>20</v>
+        <v>53.88439437658595</v>
       </c>
       <c r="D5">
-        <v>9.570888597260158</v>
+        <v>0</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>0.4785444298630079</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>-1.251898238279558</v>
+        <v>-0.2281684705137371</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -837,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.0100053487166648</v>
       </c>
       <c r="K5" t="s">
         <v>47</v>
@@ -855,7 +855,7 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>9.570888597260158</v>
+        <v>0</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -864,13 +864,13 @@
         <v>0</v>
       </c>
       <c r="S5">
-        <v>-0</v>
+        <v>-0.1149446308121474</v>
       </c>
       <c r="T5">
         <v>-0</v>
       </c>
       <c r="U5">
-        <v>0</v>
+        <v>0.1149446308121474</v>
       </c>
       <c r="V5">
         <v>2.414282608695652</v>
@@ -887,7 +887,7 @@
         <v>94.62347684936049</v>
       </c>
       <c r="C6">
-        <v>67.8544429863008</v>
+        <v>53.30967122252521</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -899,7 +899,7 @@
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.07696310001395983</v>
+        <v>0.02483339324812942</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -908,7 +908,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1480989683096255</v>
+        <v>0.1263782571571962</v>
       </c>
       <c r="K6" t="s">
         <v>47</v>
@@ -935,13 +935,13 @@
         <v>0</v>
       </c>
       <c r="S6">
-        <v>-1.565139786032143</v>
+        <v>-1.335590926957682</v>
       </c>
       <c r="T6">
         <v>-0</v>
       </c>
       <c r="U6">
-        <v>1.565139786032143</v>
+        <v>1.335590926957682</v>
       </c>
       <c r="V6">
         <v>2.452478260869565</v>
@@ -958,7 +958,7 @@
         <v>107.1891068233885</v>
       </c>
       <c r="C7">
-        <v>60.02874405614007</v>
+        <v>46.6317165877368</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -970,7 +970,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.3543563176019333</v>
+        <v>0.2950493869371018</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -979,7 +979,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.3007978147888565</v>
+        <v>0.27608659367851</v>
       </c>
       <c r="K7" t="s">
         <v>47</v>
@@ -1006,13 +1006,13 @@
         <v>0</v>
       </c>
       <c r="S7">
-        <v>-2.699803399916388</v>
+        <v>-2.469264851339225</v>
       </c>
       <c r="T7">
         <v>-0.1064315217391305</v>
       </c>
       <c r="U7">
-        <v>2.806234921655518</v>
+        <v>2.575696373078355</v>
       </c>
       <c r="V7">
         <v>2.857554347826087</v>
@@ -1029,7 +1029,7 @@
         <v>118.5859393159916</v>
       </c>
       <c r="C8">
-        <v>46.52972705655813</v>
+        <v>34.28539233104068</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -1041,7 +1041,7 @@
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.5625196485589761</v>
+        <v>0.4651784698611394</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -1050,7 +1050,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.4697814323522216</v>
+        <v>0.4292226078947897</v>
       </c>
       <c r="K8" t="s">
         <v>47</v>
@@ -1077,13 +1077,13 @@
         <v>0</v>
       </c>
       <c r="S8">
-        <v>-3.292165312747617</v>
+        <v>-2.950144794198986</v>
       </c>
       <c r="T8">
         <v>-0.6693619565217391</v>
       </c>
       <c r="U8">
-        <v>3.961527269269356</v>
+        <v>3.619506750720725</v>
       </c>
       <c r="V8">
         <v>3.970086956521739</v>
@@ -1100,7 +1100,7 @@
         <v>123.7883475363885</v>
       </c>
       <c r="C9">
-        <v>30.06890049282004</v>
+        <v>19.53466836004575</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -1112,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.5744632026444861</v>
+        <v>0.5571067763240743</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -1121,7 +1121,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.4792601397685401</v>
+        <v>0.4720282954683684</v>
       </c>
       <c r="K9" t="s">
         <v>47</v>
@@ -1148,13 +1148,13 @@
         <v>0</v>
       </c>
       <c r="S9">
-        <v>-1.773848609894536</v>
+        <v>-1.715427567493548</v>
       </c>
       <c r="T9">
         <v>-2.097760869565218</v>
       </c>
       <c r="U9">
-        <v>3.871609479459754</v>
+        <v>3.813188437058765</v>
       </c>
       <c r="V9">
         <v>3.875978260869565</v>
@@ -1171,28 +1171,28 @@
         <v>125.6227413643548</v>
       </c>
       <c r="C10">
-        <v>21.19965744334736</v>
+        <v>10.95753052257801</v>
       </c>
       <c r="D10">
-        <v>-0.005520290801730443</v>
+        <v>0</v>
       </c>
       <c r="E10">
         <v>1</v>
       </c>
       <c r="F10">
-        <v>0.0002760145400865222</v>
+        <v>0</v>
       </c>
       <c r="G10">
-        <v>0.589475782680165</v>
+        <v>0.5750988239991581</v>
       </c>
       <c r="H10">
-        <v>0.0006934740636418103</v>
+        <v>0</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.4917759330471347</v>
+        <v>0.4860744811232327</v>
       </c>
       <c r="K10" t="s">
         <v>47</v>
@@ -1216,16 +1216,16 @@
         <v>0</v>
       </c>
       <c r="R10">
-        <v>0.005520290801730443</v>
+        <v>0</v>
       </c>
       <c r="S10">
-        <v>-0.234411197867741</v>
+        <v>-0.1890256899415479</v>
       </c>
       <c r="T10">
         <v>-3.680293478260869</v>
       </c>
       <c r="U10">
-        <v>3.91470467612861</v>
+        <v>3.869319168202417</v>
       </c>
       <c r="V10">
         <v>3.923652173913044</v>
@@ -1242,28 +1242,28 @@
         <v>67.10817183722682</v>
       </c>
       <c r="C11">
-        <v>20</v>
+        <v>10.01240207287027</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>0.1531089412389255</v>
       </c>
       <c r="E11">
         <v>1</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>0.007655447061946275</v>
       </c>
       <c r="G11">
-        <v>0.3858446220699809</v>
+        <v>0.365755528005391</v>
       </c>
       <c r="H11">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>-0.06727435658362912</v>
+        <v>-0.0640096618209459</v>
       </c>
       <c r="J11">
-        <v>0.265652639309445</v>
+        <v>0.2586424729336506</v>
       </c>
       <c r="K11" t="s">
         <v>47</v>
@@ -1278,25 +1278,25 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>0.1531089412389255</v>
       </c>
       <c r="P11">
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>-1.002476371235464</v>
+        <v>-0.9538281265686024</v>
       </c>
       <c r="R11">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S11">
         <v>-0</v>
       </c>
       <c r="T11">
-        <v>-3.958573628764536</v>
+        <v>-3.854112932192472</v>
       </c>
       <c r="U11">
-        <v>3.958573628764536</v>
+        <v>3.854112932192472</v>
       </c>
       <c r="V11">
         <v>3.961217391304348</v>
@@ -1313,19 +1313,19 @@
         <v>54.67950281451348</v>
       </c>
       <c r="C12">
-        <v>20</v>
+        <v>10.77794677906489</v>
       </c>
       <c r="D12">
-        <v>4.31453167437331</v>
+        <v>6.151745672159584</v>
       </c>
       <c r="E12">
         <v>1</v>
       </c>
       <c r="F12">
-        <v>0.2157265837186655</v>
+        <v>0.3075872836079792</v>
       </c>
       <c r="G12">
-        <v>0.04865386583176467</v>
+        <v>-0.08655030512974983</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1334,7 +1334,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.316676266883907</v>
+        <v>0.3044640723787964</v>
       </c>
       <c r="K12" t="s">
         <v>47</v>
@@ -1349,10 +1349,10 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0.002839390717062074</v>
+        <v>0.2261807503950646</v>
       </c>
       <c r="P12">
-        <v>4.311692283656248</v>
+        <v>5.925564921764519</v>
       </c>
       <c r="Q12">
         <v>0</v>
@@ -1364,10 +1364,10 @@
         <v>-0</v>
       </c>
       <c r="T12">
-        <v>-5.791498652761199</v>
+        <v>-5.568157293083196</v>
       </c>
       <c r="U12">
-        <v>5.791498652761199</v>
+        <v>5.568157293083196</v>
       </c>
       <c r="V12">
         <v>6.529804347826087</v>
@@ -1384,19 +1384,19 @@
         <v>48.16905897653096</v>
       </c>
       <c r="C13">
-        <v>41.57265837186655</v>
+        <v>41.53667513986282</v>
       </c>
       <c r="D13">
-        <v>9.68546832562669</v>
+        <v>9.692664972027437</v>
       </c>
       <c r="E13">
         <v>1</v>
       </c>
       <c r="F13">
-        <v>0.4842734162813345</v>
+        <v>0.4846332486013719</v>
       </c>
       <c r="G13">
-        <v>-0.2089230335625272</v>
+        <v>-0.210245947962726</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1405,7 +1405,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.276245337848701</v>
+        <v>0.2754895648667795</v>
       </c>
       <c r="K13" t="s">
         <v>47</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0.3512918600547605</v>
+        <v>0.3669818693258495</v>
       </c>
       <c r="P13">
-        <v>9.334176465571929</v>
+        <v>9.325683102701587</v>
       </c>
       <c r="Q13">
         <v>0</v>
@@ -1435,10 +1435,10 @@
         <v>-0</v>
       </c>
       <c r="T13">
-        <v>-5.734912487771327</v>
+        <v>-5.719222478500238</v>
       </c>
       <c r="U13">
-        <v>5.734912487771327</v>
+        <v>5.719222478500238</v>
       </c>
       <c r="V13">
         <v>5.750054347826087</v>
@@ -1467,7 +1467,7 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.5591354732365226</v>
+        <v>0.5412344255266432</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1476,7 +1476,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.4661407430493436</v>
+        <v>0.4586819731702272</v>
       </c>
       <c r="K14" t="s">
         <v>47</v>
@@ -1503,13 +1503,13 @@
         <v>0</v>
       </c>
       <c r="S14">
-        <v>-0.1540940447580637</v>
+        <v>-0.05712690160216116</v>
       </c>
       <c r="T14">
         <v>-5.905931521739131</v>
       </c>
       <c r="U14">
-        <v>6.060025566497194</v>
+        <v>5.963058423341292</v>
       </c>
       <c r="V14">
         <v>6.062554347826087</v>
@@ -1526,7 +1526,7 @@
         <v>77.74323370932761</v>
       </c>
       <c r="C15">
-        <v>89.22952977620969</v>
+        <v>89.7143654919892</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.5452989494478915</v>
+        <v>0.4863522411577392</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1547,7 +1547,7 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.4544509452180782</v>
+        <v>0.4298898167638481</v>
       </c>
       <c r="K15" t="s">
         <v>47</v>
@@ -1574,13 +1574,13 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>-0.5555119494561334</v>
+        <v>-0.2395856973264472</v>
       </c>
       <c r="T15">
         <v>-5.290025000000001</v>
       </c>
       <c r="U15">
-        <v>5.845536949456134</v>
+        <v>5.529610697326448</v>
       </c>
       <c r="V15">
         <v>5.845989130434782</v>
@@ -1597,28 +1597,28 @@
         <v>117.7594222185925</v>
       </c>
       <c r="C16">
-        <v>86.45197002892901</v>
+        <v>88.51643700535696</v>
       </c>
       <c r="D16">
-        <v>-1.694172773350464</v>
+        <v>0</v>
       </c>
       <c r="E16">
         <v>1</v>
       </c>
       <c r="F16">
-        <v>0.08470863866752319</v>
+        <v>0</v>
       </c>
       <c r="G16">
-        <v>0.9140364376926299</v>
+        <v>0.7089198329375541</v>
       </c>
       <c r="H16">
-        <v>0.1995048069282211</v>
+        <v>0</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.5962205282462594</v>
+        <v>0.5938822791517366</v>
       </c>
       <c r="K16" t="s">
         <v>47</v>
@@ -1642,16 +1642,16 @@
         <v>0</v>
       </c>
       <c r="R16">
-        <v>1.694172773350464</v>
+        <v>0</v>
       </c>
       <c r="S16">
-        <v>-0.645124707676338</v>
+        <v>-0.6252685547633048</v>
       </c>
       <c r="T16">
         <v>-4.417914130434784</v>
       </c>
       <c r="U16">
-        <v>5.063038838111122</v>
+        <v>5.043182685198088</v>
       </c>
       <c r="V16">
         <v>5.069641304347826</v>
@@ -1668,7 +1668,7 @@
         <v>113.6104330778589</v>
       </c>
       <c r="C17">
-        <v>74.75548262379502</v>
+        <v>85.39009423154043</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -1680,7 +1680,7 @@
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.5366073580053081</v>
+        <v>0.4960972157943014</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1689,7 +1689,7 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.4474359992126119</v>
+        <v>0.4305567732913591</v>
       </c>
       <c r="K17" t="s">
         <v>47</v>
@@ -1716,13 +1716,13 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>-0.7430572167003286</v>
+        <v>-0.5944861263174128</v>
       </c>
       <c r="T17">
         <v>-3.195278260869565</v>
       </c>
       <c r="U17">
-        <v>3.938335477569894</v>
+        <v>3.789764387186978</v>
       </c>
       <c r="V17">
         <v>3.940652173913044</v>
@@ -1739,28 +1739,28 @@
         <v>139.023119547856</v>
       </c>
       <c r="C18">
-        <v>71.04019654029337</v>
+        <v>82.41766359995337</v>
       </c>
       <c r="D18">
-        <v>-4.035612575098146</v>
+        <v>0</v>
       </c>
       <c r="E18">
         <v>1</v>
       </c>
       <c r="F18">
-        <v>0.2017806287549073</v>
+        <v>0</v>
       </c>
       <c r="G18">
-        <v>1.182846690248388</v>
+        <v>0.6077314854490093</v>
       </c>
       <c r="H18">
-        <v>0.5610434494767004</v>
+        <v>0</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.5184164464023163</v>
+        <v>0.512553215017867</v>
       </c>
       <c r="K18" t="s">
         <v>47</v>
@@ -1784,16 +1784,16 @@
         <v>0</v>
       </c>
       <c r="R18">
-        <v>4.035612575098146</v>
+        <v>0</v>
       </c>
       <c r="S18">
-        <v>-2.071734704699306</v>
+        <v>-2.029560198735707</v>
       </c>
       <c r="T18">
         <v>-1.657259782608696</v>
       </c>
       <c r="U18">
-        <v>3.728994487308002</v>
+        <v>3.686819981344403</v>
       </c>
       <c r="V18">
         <v>3.730771739130435</v>
@@ -1810,19 +1810,19 @@
         <v>65.23937164610012</v>
       </c>
       <c r="C19">
-        <v>40.50346014130611</v>
+        <v>72.26986260627484</v>
       </c>
       <c r="D19">
-        <v>9.897248786618615</v>
+        <v>0</v>
       </c>
       <c r="E19">
         <v>1</v>
       </c>
       <c r="F19">
-        <v>0.4948624393309308</v>
+        <v>0</v>
       </c>
       <c r="G19">
-        <v>-1.082899597764224</v>
+        <v>-0.2314912808284286</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1831,7 +1831,7 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.01669457798300102</v>
+        <v>0.0501324947547696</v>
       </c>
       <c r="K19" t="s">
         <v>47</v>
@@ -1846,10 +1846,10 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.04689184691152853</v>
+        <v>0</v>
       </c>
       <c r="P19">
-        <v>9.850356939707087</v>
+        <v>0</v>
       </c>
       <c r="Q19">
         <v>0</v>
@@ -1858,13 +1858,13 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>-0</v>
+        <v>-0.4656501339211062</v>
       </c>
       <c r="T19">
-        <v>-0.255897283523254</v>
+        <v>-0.3027891304347826</v>
       </c>
       <c r="U19">
-        <v>0.255897283523254</v>
+        <v>0.7684392643558887</v>
       </c>
       <c r="V19">
         <v>4.493826086956522</v>
@@ -1881,7 +1881,7 @@
         <v>122.1127597553482</v>
       </c>
       <c r="C20">
-        <v>89.98970407439919</v>
+        <v>69.9416119366693</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -1893,7 +1893,7 @@
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.5173529106005507</v>
+        <v>0.3929857835952549</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1902,7 +1902,7 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.5140517625646026</v>
+        <v>0.4622321263123961</v>
       </c>
       <c r="K20" t="s">
         <v>47</v>
@@ -1929,13 +1929,13 @@
         <v>0</v>
       </c>
       <c r="S20">
-        <v>-4.177299313681564</v>
+        <v>-3.752940414938904</v>
       </c>
       <c r="T20">
         <v>-0.03234891304347826</v>
       </c>
       <c r="U20">
-        <v>4.209648226725042</v>
+        <v>3.785289327982382</v>
       </c>
       <c r="V20">
         <v>4.888728260869565</v>
@@ -1952,7 +1952,7 @@
         <v>86.56083745916285</v>
       </c>
       <c r="C21">
-        <v>69.10320750599138</v>
+        <v>51.17690986197479</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -1964,7 +1964,7 @@
         <v>0</v>
       </c>
       <c r="G21">
-        <v>-0.1363002791215248</v>
+        <v>-0.1647360906694895</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.1367196735659967</v>
+        <v>0.1248714187543448</v>
       </c>
       <c r="K21" t="s">
         <v>47</v>
@@ -2000,13 +2000,13 @@
         <v>0</v>
       </c>
       <c r="S21">
-        <v>-1.579463387591387</v>
+        <v>-1.442585612844329</v>
       </c>
       <c r="T21">
         <v>-0</v>
       </c>
       <c r="U21">
-        <v>1.579463387591387</v>
+        <v>1.442585612844329</v>
       </c>
       <c r="V21">
         <v>4.471108695652174</v>
@@ -2023,7 +2023,7 @@
         <v>89.71526517400227</v>
       </c>
       <c r="C22">
-        <v>61.20589056803444</v>
+        <v>43.96398179775314</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -2035,7 +2035,7 @@
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.202285729031614</v>
+        <v>-0.1909734688937625</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -2044,7 +2044,7 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.2678802092810283</v>
+        <v>0.1040222101454548</v>
       </c>
       <c r="K22" t="s">
         <v>47</v>
@@ -2071,13 +2071,13 @@
         <v>0</v>
       </c>
       <c r="S22">
-        <v>-2.985893301005979</v>
+        <v>-1.159470575533654</v>
       </c>
       <c r="T22">
         <v>-0</v>
       </c>
       <c r="U22">
-        <v>2.985893301005979</v>
+        <v>1.159470575533654</v>
       </c>
       <c r="V22">
         <v>4.092826086956522</v>
@@ -2094,7 +2094,7 @@
         <v>90.19278809868813</v>
       </c>
       <c r="C23">
-        <v>46.27642406300455</v>
+        <v>38.16662892008487</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -2106,7 +2106,7 @@
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.2020943344551161</v>
+        <v>0.3050248019311985</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -2115,7 +2115,7 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.2352308552917078</v>
+        <v>0.2781185500734088</v>
       </c>
       <c r="K23" t="s">
         <v>47</v>
@@ -2142,13 +2142,13 @@
         <v>0</v>
       </c>
       <c r="S23">
-        <v>-2.608089407706527</v>
+        <v>-3.083600761616262</v>
       </c>
       <c r="T23">
         <v>-0</v>
       </c>
       <c r="U23">
-        <v>2.608089407706527</v>
+        <v>3.083600761616262</v>
       </c>
       <c r="V23">
         <v>3.348934782608695</v>
@@ -2165,7 +2165,7 @@
         <v>112.6211585567256</v>
       </c>
       <c r="C24">
-        <v>33.23597702447191</v>
+        <v>22.74862511200356</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -2177,7 +2177,7 @@
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.3519636991405176</v>
+        <v>0.3211917331426916</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -2186,7 +2186,7 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.2978356535267308</v>
+        <v>0.2850140010276366</v>
       </c>
       <c r="K24" t="s">
         <v>47</v>
@@ -2213,13 +2213,13 @@
         <v>0</v>
       </c>
       <c r="S24">
-        <v>-2.644579911480092</v>
+        <v>-2.530732276955571</v>
       </c>
       <c r="T24">
         <v>-0</v>
       </c>
       <c r="U24">
-        <v>2.644579911480092</v>
+        <v>2.530732276955571</v>
       </c>
       <c r="V24">
         <v>2.684826086956522</v>
@@ -2236,7 +2236,7 @@
         <v>100.7519619575931</v>
       </c>
       <c r="C25">
-        <v>20.01307746707145</v>
+        <v>10.0949637272257</v>
       </c>
       <c r="D25">
         <v>0</v>
